--- a/biology/Botanique/Charles_François_Antoine_Morren/Charles_François_Antoine_Morren.xlsx
+++ b/biology/Botanique/Charles_François_Antoine_Morren/Charles_François_Antoine_Morren.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Charles_Fran%C3%A7ois_Antoine_Morren</t>
+          <t>Charles_François_Antoine_Morren</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charles François Antoine Morren est un horticulteur et botaniste belge, né le 3 mars 1807 à Gand et mort le 17 décembre 1858 à Liège.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Charles_Fran%C3%A7ois_Antoine_Morren</t>
+          <t>Charles_François_Antoine_Morren</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après des études à Gand et à Bruxelles, il obtient un titre de docteur en 1829. En 1833, il enseigne la physique à l’université de Gand puis la botanique à l'université de Liège. Il dirige également le jardin botanique de Liège.
-Il a découvert la fécondation artificielle de la vanille en 1836[1]; bien qu'il parvienne à produire quelques centaines de gousses sous serre, son procédé ne remporte aucun succès économique[1]. De plus la méthode qu'il a utilisée n'est pas connue avec certitude, mais elle nécessite nettement plus de travail que celle inventée en 1841 à la Réunion par Edmond Albius et qui est encore appliquée aujourd'hui[1].
+Il a découvert la fécondation artificielle de la vanille en 1836; bien qu'il parvienne à produire quelques centaines de gousses sous serre, son procédé ne remporte aucun succès économique. De plus la méthode qu'il a utilisée n'est pas connue avec certitude, mais elle nécessite nettement plus de travail que celle inventée en 1841 à la Réunion par Edmond Albius et qui est encore appliquée aujourd'hui.
 Parmi ses travaux, il faut citer :
 Essai sur l'influence de la lumière dans la manifestation des êtres organisés (1835).
 Études d'anatomie et de physiologie végétales (1841).
@@ -533,7 +547,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Charles_Fran%C3%A7ois_Antoine_Morren</t>
+          <t>Charles_François_Antoine_Morren</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,7 +565,9 @@
           <t>Hommage</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La rue Charles Morren à Liège lui rend hommage.
 </t>
